--- a/Data/Figure2/Wk6KeyPhotometry.xlsx
+++ b/Data/Figure2/Wk6KeyPhotometry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\florians\Documents\GitHub\Schoukroun2026\Data\Figure2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932C1D4A-25B1-4C55-A00C-D1EC349EB1D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E270B295-DD3C-47D9-B995-1B0AEBB21971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="2250" windowWidth="12690" windowHeight="11130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7845" yWindow="2595" windowWidth="12690" windowHeight="11130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
   <si>
     <t>Name</t>
   </si>
@@ -91,6 +91,9 @@
   </si>
   <si>
     <t>Yes-too little weight gain</t>
+  </si>
+  <si>
+    <t>Yes-Wonky photometry</t>
   </si>
 </sst>
 </file>
@@ -411,7 +414,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,7 +469,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>28.6</v>

--- a/Data/Figure2/Wk6KeyPhotometry.xlsx
+++ b/Data/Figure2/Wk6KeyPhotometry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\florians\Documents\GitHub\Schoukroun2026\Data\Figure2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E270B295-DD3C-47D9-B995-1B0AEBB21971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190949AF-35DC-49B7-9B84-CE2E4BC917E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7845" yWindow="2595" windowWidth="12690" windowHeight="11130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7500" yWindow="2250" windowWidth="12690" windowHeight="11130" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>Name</t>
   </si>
@@ -88,9 +88,6 @@
   </si>
   <si>
     <t>885-DATCRE-M</t>
-  </si>
-  <si>
-    <t>Yes-too little weight gain</t>
   </si>
   <si>
     <t>Yes-Wonky photometry</t>
@@ -414,7 +411,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,7 +466,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>28.6</v>
@@ -588,7 +585,7 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E10">
         <v>22.2</v>
@@ -605,7 +602,7 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E11">
         <v>23.2</v>
@@ -622,7 +619,7 @@
         <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E12">
         <v>31.3</v>
